--- a/prodinfo/mea/sa/output/res20251225.xlsx
+++ b/prodinfo/mea/sa/output/res20251225.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,53 +427,30 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-12-25 14:22:41</v>
+        <v>2025-12-25 01:28:26</v>
       </c>
       <c r="B2" t="str">
-        <v>沙特</v>
+        <v>阿联酋</v>
       </c>
       <c r="C2" t="str">
-        <v>Extra</v>
+        <v>Sharaf DG</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</v>
+        <v>https://uae.sharafdg.com/product/samsung-galaxy-s25-ultra-5g-256gb-12gb-ram-titanium-black-ai-smartphone-middle-east-version</v>
       </c>
       <c r="E2" t="str">
-        <v>HUAWEI nova 14 Pro 12+512</v>
+        <v>SAMSUNG S25+ 12+512</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-12-25 14:22:50</v>
-      </c>
-      <c r="B3" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D3" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-jpm1749.html?childSku=650945</v>
-      </c>
-      <c r="E3" t="str">
-        <v>SAMSUNG S25 Ultra 12+512</v>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v>3130</v>
+        <v>3349</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>